--- a/application/assets/templates/Product_Import_Template.xlsx
+++ b/application/assets/templates/Product_Import_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Suggestion" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Barcode   [Text(20)]</t>
-  </si>
-  <si>
-    <t>Unit Code   [Text(5)]</t>
-  </si>
-  <si>
-    <t>Product Code    [Text(20)]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>คำแนะนำในการนำเข้าข้อมูล</t>
   </si>
@@ -38,6 +29,27 @@
   </si>
   <si>
     <t>* ถ้าหากรหัสสินค้านั้นซ้ำกับในระบบ ระบบจะถือว่าเป็นการอัพเดทข้อมูลทับ ข้อมูลเดิมทันที</t>
+  </si>
+  <si>
+    <t>รหัสสินค้า [Text(50)]</t>
+  </si>
+  <si>
+    <t>ชื่อสินค้า  [Text(255)]</t>
+  </si>
+  <si>
+    <t>รหัสกลุ่มสินค้า [Text(5)]</t>
+  </si>
+  <si>
+    <t>รหัสผู้จำหน่าย [Text(5)]</t>
+  </si>
+  <si>
+    <t>รหัสประเภทสินค้า [Text(5)]</t>
+  </si>
+  <si>
+    <t>ต้นทุน [Float]</t>
+  </si>
+  <si>
+    <t>ส่วนลดต้นทุน [Float]</t>
   </si>
 </sst>
 </file>
@@ -89,15 +101,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,21 +123,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -410,184 +445,184 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -597,28 +632,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="27" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="20" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/application/assets/templates/Product_Import_Template.xlsx
+++ b/application/assets/templates/Product_Import_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Suggestion" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/application/assets/templates/Product_Import_Template.xlsx
+++ b/application/assets/templates/Product_Import_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Suggestion" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,10 @@
     <t>รหัสประเภทสินค้า [Text(5)]</t>
   </si>
   <si>
-    <t>ต้นทุน [Float]</t>
-  </si>
-  <si>
-    <t>ส่วนลดต้นทุน [Float]</t>
+    <t>ต้นทุน [Number]</t>
+  </si>
+  <si>
+    <t>ส่วนลดต้นทุน [Text]</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
     <col min="4" max="4" width="26.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="27" style="10" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="20" style="10" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/application/assets/templates/Product_Import_Template.xlsx
+++ b/application/assets/templates/Product_Import_Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>คำแนะนำในการนำเข้าข้อมูล</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>รหัสขนาด [Text(5)]</t>
+  </si>
+  <si>
+    <t>สินค้าขายดี [Number]</t>
+  </si>
+  <si>
+    <t>4. ถ้าต้องการกำหนดให้เป็น 'สินค้าขายดี' กรุณาใส่ 1 ถ้าไม่ต้องการให้ระบุ 0 (หรือหากระบุนอกเหนือจาก 1 ระบบจะไม่มองเป็นสินค้าขายดี)</t>
   </si>
 </sst>
 </file>
@@ -215,39 +221,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>233683</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>51545</xdr:rowOff>
+      <xdr:rowOff>33134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="รูปภาพ 2"/>
+        <xdr:cNvPr id="4" name="รูปภาพ 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="59531" y="1190625"/>
-          <a:ext cx="13430250" cy="1635076"/>
+          <a:off x="142875" y="1178719"/>
+          <a:ext cx="16485714" cy="1628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -528,7 +528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,11 +536,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -754,6 +752,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -763,11 +766,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="A2:L6"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -783,9 +784,10 @@
     <col min="10" max="10" width="16.28515625" style="9" customWidth="1"/>
     <col min="11" max="11" width="16" style="8" customWidth="1"/>
     <col min="12" max="12" width="19" style="8" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -822,8 +824,11 @@
       <c r="L1" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -834,8 +839,9 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
@@ -846,8 +852,9 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
@@ -858,8 +865,9 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
@@ -870,8 +878,9 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
@@ -882,8 +891,9 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
@@ -894,8 +904,9 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -906,8 +917,9 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -918,8 +930,9 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -930,8 +943,9 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -942,8 +956,9 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -954,8 +969,9 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -966,8 +982,9 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
@@ -978,8 +995,9 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
@@ -990,8 +1008,9 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -1002,8 +1021,9 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
@@ -1014,6 +1034,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
